--- a/data/raw/bis/BIS REER (2020).xlsx
+++ b/data/raw/bis/BIS REER (2020).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f79c43fca06a053/Desktop/global_price_indices/data/raw/bis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_D79F07F815359C86C825B534BF3001EE3B1E6792" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AEEA231-1675-4712-86C4-A49653D63B94}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_D79F07F815359C86C825B534BF3001EE3B1E6792" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E64389F0-0E6A-4BCC-AC5C-DD2E7EBDE906}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="218">
   <si>
     <t>Basket</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -736,10 +739,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,7 +1031,7 @@
   <dimension ref="A1:S129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,8 +1151,8 @@
       <c r="O2">
         <v>99.28</v>
       </c>
-      <c r="P2">
-        <v>98.88</v>
+      <c r="P2" t="s">
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>98.6</v>
